--- a/classfiers/greedy/decisionTree/greedy-decisionTree-results.xlsx
+++ b/classfiers/greedy/decisionTree/greedy-decisionTree-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8326086956521738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.8285714285714285</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.8317384370015948</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9913043478260869</v>
+        <v>0.9952153110047847</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.8333333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.82</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.62</v>
+        <v>0.7842857142857144</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8314492753623188</v>
+        <v>0.8977717019822282</v>
       </c>
     </row>
   </sheetData>
